--- a/va_facility_data_2025-02-20/Franklin VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Franklin%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Franklin VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Franklin%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc55ea0d6f5d6462e9b2099149d384883"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R764464ce684c414b81347f2754c62fdc"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbdb1cdaf871443e9a7a1211d30a04e38"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rbafd9c954e744f93b354dcb0700750ee"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcd94df36ceb34514afc3edd3b8eaf25a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb7a9486f7bb647999d3a5d66e7eed1a1"/>
   </x:sheets>
 </x:workbook>
 </file>
